--- a/biology/Botanique/Patchouli/Patchouli.xlsx
+++ b/biology/Botanique/Patchouli/Patchouli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pogostemon cablin
 Le patchouli (Pogostemon cablin) est une espèce de plantes à fleurs de la famille des Lamiacées. C'est une plante tropicale utilisée surtout en parfumerie et en cosmétologie.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le patchouli est une herbe aromatique pouvant dépasser un mètre de haut, aux feuilles larges et veloutées, aux tiges tétragonales. Les fruits sont de minuscules nucules noires.
 </t>
@@ -544,7 +558,9 @@
           <t>Culture et multiplication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En pays tropical, le patchouli préfère les lieux semi-ombragés et bien drainés dans un sol riche et humide.
 La multiplication se fait par bouturage des tiges de 20 à 25 centimètres de longueur.
@@ -579,13 +595,15 @@
           <t>Utilisation médicinale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'utilisation de la plante en infusion est efficace contre la mauvaise digestion, les troubles intestinaux (évacuation des gaz).
 Le patchouli est utilisé également aux Antilles contre le rhume, les céphalées et les vomissements.
-C'est un anti-inflammatoire puissant. L'huile essentielle est souvent utilisée pour faciliter la circulation sanguine[2].
-Ses propriétés sont antiémétiques, antalgiques et antiseptiques[3].
-En cuisine, l'huile essentielle de la plante peut servir à aromatiser les boissons, desserts, mais aussi des plats cuisinés[3].
+C'est un anti-inflammatoire puissant. L'huile essentielle est souvent utilisée pour faciliter la circulation sanguine.
+Ses propriétés sont antiémétiques, antalgiques et antiseptiques.
+En cuisine, l'huile essentielle de la plante peut servir à aromatiser les boissons, desserts, mais aussi des plats cuisinés.
 </t>
         </is>
       </c>
@@ -614,7 +632,9 @@
           <t>Origine du mot</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom, apparu au début du XIXe siècle, correspond sans doute à un mot tamoul composé des termes patch (« vert ») et ilai (« feuille »). Selon certains, le second élément serait plutôt l'anglais leaf, qui lui aussi signifie « feuille ».
 </t>
@@ -645,15 +665,53 @@
           <t>Utilisation en parfumerie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Une fois distillée, l'huile essentielle doit vieillir plusieurs mois en fûts pour perdre de son amertume.
 Très utilisé dans la formulation des parfums, le patchouli possède une odeur puissante, à la fois boisée, terreuse et sèche avec des accents fumés, camphrés, liquoreux et même moisis. La plante fraîche ne possède aucune odeur[réf. nécessaire], ce n'est qu'après une phase de fermentation que les précurseurs des différentes molécules (patchoulol et autres) donnent l'odeur aux feuilles que l'on traite soit par distillation ou par une extraction aux solvants volatils pour obtenir l'huile essentielle ou l'absolue.
-Le patchouli arrive en Europe au milieu du XIXe siècle, notamment sur les grands boulevards parisiens, les parfumeurs découvrant l'attrait olfactif des femmes sur les châles en cachemire importés d'Inde, souvent conditionnés avec des feuilles de patchouli utilisées comme anti-mite. Le patchouli, comme le jasmin ou le musc, étant une odeur érotique et addictive, il est adopté par les demi-mondaines du Second Empire[4],[5].
-Longtemps associé au mouvement hippie des années 1970 avec les femmes portant le parfum avec une note de fond de patchouli (comme l’Aromatics Elixir, parfum de la libération sexuelle, n° 1 des ventes de Clinique (en) jusqu'en 2010[6]) à même la peau, le patchouli n'a pas toujours eu le succès qu'il a actuellement[5].
-Matière première aujourd'hui chère et luxueuse, le patchouli connaît depuis plusieurs années un intérêt grandissant de la part des marques de parfum[7]. On utilise l'huile essentielle, ainsi que des fractions (essences redistillées et séparées de leurs phases trop lourdes) qui ont l'avantage de posséder une saveur plus fine, moins camphrée. Le patchouli est utilisé comme note de fond, aussi bien dans les fragrances masculines que féminines. Le patchouli apporte sa saveur boisée terreuse aux parfums boisés, chyprés, cuirés et orientaux.
+Le patchouli arrive en Europe au milieu du XIXe siècle, notamment sur les grands boulevards parisiens, les parfumeurs découvrant l'attrait olfactif des femmes sur les châles en cachemire importés d'Inde, souvent conditionnés avec des feuilles de patchouli utilisées comme anti-mite. Le patchouli, comme le jasmin ou le musc, étant une odeur érotique et addictive, il est adopté par les demi-mondaines du Second Empire,.
+Longtemps associé au mouvement hippie des années 1970 avec les femmes portant le parfum avec une note de fond de patchouli (comme l’Aromatics Elixir, parfum de la libération sexuelle, n° 1 des ventes de Clinique (en) jusqu'en 2010) à même la peau, le patchouli n'a pas toujours eu le succès qu'il a actuellement.
+Matière première aujourd'hui chère et luxueuse, le patchouli connaît depuis plusieurs années un intérêt grandissant de la part des marques de parfum. On utilise l'huile essentielle, ainsi que des fractions (essences redistillées et séparées de leurs phases trop lourdes) qui ont l'avantage de posséder une saveur plus fine, moins camphrée. Le patchouli est utilisé comme note de fond, aussi bien dans les fragrances masculines que féminines. Le patchouli apporte sa saveur boisée terreuse aux parfums boisés, chyprés, cuirés et orientaux.
 Facettes olfactives de l'essence de patchouli : bois, terre, camphre, vert, liqueur, fumée, moisi, médicinal.
-Quelques parfums
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Patchouli</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patchouli</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisation en parfumerie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Quelques parfums</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Patchouli (Parfums M.Micallef)
 Patchouli Ardent (Guerlain)
 Patchouli Intense (Molinard)
@@ -661,46 +719,48 @@
 Gentleman (Givenchy)
 Patchouli (Réminiscence)
 501 (Bon Parfumeur)
-Angel (Thierry Mugler)[5]
+Angel (Thierry Mugler)
 Aromatics Elixir (Clinique (en))
 C'est la Fête Patchouli (Christian Lacroix)
 Purple Patchouli et White Patchouli (Tom Ford)
 Musc Patchouli (El Nabil)
 Jimmy Choo the fragrance (Jimmy Choo)
-One Million[5]
-La Petite Robe noire[5]
-La vie est belle[5]
-Flower-Bomb[5]
-Coco Mademoiselle[5]
+One Million
+La Petite Robe noire
+La vie est belle
+Flower-Bomb
+Coco Mademoiselle
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Patchouli</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Patchouli</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Utilisations alternatives</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine traditionnelle chinoise, on l'emploie pour soigner la gastro-entérite. En aromathérapie, son essence est un tonique et un stimulant digestif, un tonique circulatoire (on l'utilise aussi pour les soins de la peau).
 </t>
